--- a/Beneficient/test_LiquidTrust/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_LiquidTrust/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_VerifyAllClickables_LiquidTrust_12_November_2021_06_35PM.pdf</t>
+          <t>test_VerifyAllClickables_LiquidTrust_11_March_2022_12_19PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_SummaryByPeriod_12_November_2021_04_57PM.pdf</t>
+          <t>test_SummaryByPeriod_11_March_2022_10_55AM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_TrustAccounting_12_November_2021_05_47PM.pdf</t>
+          <t>test_TrustAccounting_11_March_2022_12_10PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_UnfundedCommitments_12_November_2021_02_00PM.pdf</t>
+          <t>test_UnfundedCommitments_11_March_2022_12_13PM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_LiquidTrustsUnderwriting_12_November_2021_01_58PM.pdf</t>
+          <t>test_LiquidTrustsUnderwriting_11_March_2022_10_52AM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_K1Report_12_November_2021_01_57PM.pdf</t>
+          <t>test_K1Report_11_March_2022_10_51AM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,16 +587,70 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_SummaryByPeriod_Values</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_SummaryByPeriod_Values_11_March_2022_12_08PM.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test_LiquidTrust</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>This test scenario is to match SOS [Funds/Investment] values with Distribution values in Investments and Funds table at Capital Activity Summary By Period page</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Send Only when Fail=No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>test_TrustAccounting_Values</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>test_TrustAccounting_Values_11_March_2022_12_12PM.pdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>test_LiquidTrust</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>This test scenario is to compare values for Accounting NAV (USD), SPV NOA (USD), Other (USD), Risk NAV (USD), Ben Unfunded Commitment (USD) at Trust Accounting page</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
